--- a/SCORPION/SCROPION 2023-09-20/Work_File.xlsx
+++ b/SCORPION/SCROPION 2023-09-20/Work_File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\SCORPION\SCROPION 2023-09-20\scropion_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\SCORPION\SCROPION 2023-09-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FBE67-E043-42D4-A88B-D43DD409F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91F07D-86A5-4CFE-A8F3-4D4CEEA97E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -12454,8 +12454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="H144" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCORPION/SCROPION 2023-09-20/Work_File.xlsx
+++ b/SCORPION/SCROPION 2023-09-20/Work_File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\SCORPION\SCROPION 2023-09-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/SCORPION/SCROPION 2023-09-20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91F07D-86A5-4CFE-A8F3-4D4CEEA97E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EF91F07D-86A5-4CFE-A8F3-4D4CEEA97E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73AC1F8E-3C7E-4878-83CF-7553F9943B65}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -12163,6 +12163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12454,8 +12458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29966,7 +29970,7 @@
       <c r="D219" t="s">
         <v>863</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="F219">
